--- a/data_year/zb/能源/焦炭平衡表.xlsx
+++ b/data_year/zb/能源/焦炭平衡表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,1233 +533,677 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.9</v>
+        <v>128.23895476224</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2</v>
+        <v>0.12</v>
       </c>
       <c r="D2" t="n">
-        <v>12.2</v>
+        <v>2.772</v>
       </c>
       <c r="E2" t="n">
-        <v>70.90000000000001</v>
+        <v>46.8195</v>
       </c>
       <c r="F2" t="n">
-        <v>142.9</v>
+        <v>128.23895476224</v>
       </c>
       <c r="G2" t="n">
-        <v>137.2</v>
+        <v>43.486668078048</v>
       </c>
       <c r="H2" t="n">
-        <v>10554.6</v>
+        <v>38598.6847308829</v>
       </c>
       <c r="I2" t="n">
-        <v>10411.7</v>
+        <v>38470.4522807102</v>
       </c>
       <c r="J2" t="n">
-        <v>19</v>
+        <v>5.81</v>
       </c>
       <c r="K2" t="n">
-        <v>35.7</v>
+        <v>5.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1519.7</v>
+        <v>335</v>
       </c>
       <c r="M2" t="n">
-        <v>10892.3</v>
+        <v>38707.0861583967</v>
       </c>
       <c r="N2" t="n">
-        <v>51.6</v>
+        <v>4.28675484628911</v>
       </c>
       <c r="O2" t="n">
-        <v>228</v>
+        <v>373.31</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>12184</v>
+        <v>38657.8261583967</v>
       </c>
       <c r="R2" t="n">
-        <v>10697.9</v>
+        <v>38574.5604487882</v>
       </c>
       <c r="S2" t="n">
-        <v>10840.8</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>38702.7994035505</v>
+      </c>
+      <c r="T2" t="n">
+        <v>10.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153.65</v>
+        <v>109.003111547904</v>
       </c>
       <c r="C3" t="n">
-        <v>11.68</v>
+        <v>0.09</v>
       </c>
       <c r="D3" t="n">
-        <v>12.08</v>
+        <v>1.9404</v>
       </c>
       <c r="E3" t="n">
-        <v>67.461</v>
+        <v>54.05</v>
       </c>
       <c r="F3" t="n">
-        <v>153.65</v>
+        <v>109.003111547904</v>
       </c>
       <c r="G3" t="n">
-        <v>134.2</v>
+        <v>41.0751804073651</v>
       </c>
       <c r="H3" t="n">
-        <v>11642.4</v>
+        <v>41952.0771277073</v>
       </c>
       <c r="I3" t="n">
-        <v>11488.75</v>
+        <v>41843.0768150267</v>
       </c>
       <c r="J3" t="n">
-        <v>23.91</v>
+        <v>4.81</v>
       </c>
       <c r="K3" t="n">
-        <v>39.73</v>
+        <v>9.24</v>
       </c>
       <c r="L3" t="n">
-        <v>1384.6</v>
+        <v>329.72</v>
       </c>
       <c r="M3" t="n">
-        <v>12062.94</v>
+        <v>42085.8477114693</v>
       </c>
       <c r="N3" t="n">
-        <v>131.479000000001</v>
+        <v>22.562204487338</v>
       </c>
       <c r="O3" t="n">
-        <v>-283.23</v>
+        <v>-1029</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>13730.77</v>
+        <v>43432.9977114693</v>
       </c>
       <c r="R3" t="n">
-        <v>11777.811</v>
+        <v>41954.2823954341</v>
       </c>
       <c r="S3" t="n">
-        <v>11931.461</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
+        <v>42063.285506982</v>
+      </c>
+      <c r="T3" t="n">
+        <v>11.57</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.35</v>
+        <v>66.7</v>
       </c>
       <c r="C4" t="n">
-        <v>11.44</v>
+        <v>0.09</v>
       </c>
       <c r="D4" t="n">
-        <v>12.34</v>
+        <v>1.9404</v>
       </c>
       <c r="E4" t="n">
-        <v>73.68600000000001</v>
+        <v>57.48</v>
       </c>
       <c r="F4" t="n">
-        <v>137.35</v>
+        <v>66.7</v>
       </c>
       <c r="G4" t="n">
-        <v>115.12</v>
+        <v>37.9314677449921</v>
       </c>
       <c r="H4" t="n">
-        <v>12065.05</v>
+        <v>44694.8206204282</v>
       </c>
       <c r="I4" t="n">
-        <v>11927.7</v>
+        <v>44628.1218908585</v>
       </c>
       <c r="J4" t="n">
-        <v>23.38</v>
+        <v>6.31</v>
       </c>
       <c r="K4" t="n">
-        <v>42.6</v>
+        <v>6.66</v>
       </c>
       <c r="L4" t="n">
-        <v>1357.02</v>
+        <v>102</v>
       </c>
       <c r="M4" t="n">
-        <v>12830.53</v>
+        <v>44813.7352174371</v>
       </c>
       <c r="N4" t="n">
-        <v>486.914000000001</v>
+        <v>8.50145883361256</v>
       </c>
       <c r="O4" t="n">
-        <v>-65.79000000000001</v>
+        <v>1076.69</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>14253.34</v>
+        <v>43831.4452174371</v>
       </c>
       <c r="R4" t="n">
-        <v>12206.266</v>
+        <v>44738.5337586035</v>
       </c>
       <c r="S4" t="n">
-        <v>12343.616</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
+        <v>44805.2337586034</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.85</v>
+        <v>34.41</v>
       </c>
       <c r="C5" t="n">
-        <v>10.79</v>
+        <v>2.21</v>
       </c>
       <c r="D5" t="n">
-        <v>11.39</v>
+        <v>4.97</v>
       </c>
       <c r="E5" t="n">
-        <v>73.68600000000001</v>
+        <v>69.17</v>
       </c>
       <c r="F5" t="n">
-        <v>177.85</v>
+        <v>34.41</v>
       </c>
       <c r="G5" t="n">
-        <v>112.5</v>
+        <v>38.0446410460525</v>
       </c>
       <c r="H5" t="n">
-        <v>15021.85</v>
+        <v>45693.9602608295</v>
       </c>
       <c r="I5" t="n">
-        <v>14844</v>
+        <v>45659.5645339102</v>
       </c>
       <c r="J5" t="n">
-        <v>20.79</v>
+        <v>7.69</v>
       </c>
       <c r="K5" t="n">
-        <v>47.46</v>
+        <v>35.83</v>
       </c>
       <c r="L5" t="n">
-        <v>1472.11</v>
+        <v>467.25</v>
       </c>
       <c r="M5" t="n">
-        <v>15930.88</v>
+        <v>45850.0766956934</v>
       </c>
       <c r="N5" t="n">
-        <v>632.414000000004</v>
+        <v>-1.81247926293872</v>
       </c>
       <c r="O5" t="n">
-        <v>-372.89</v>
+        <v>-2033.97</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>17775.71</v>
+        <v>48347.8166956934</v>
       </c>
       <c r="R5" t="n">
-        <v>15120.616</v>
+        <v>45817.4791749563</v>
       </c>
       <c r="S5" t="n">
-        <v>15298.466</v>
+        <v>45851.8891749563</v>
       </c>
       <c r="T5" t="n">
-        <v>0.17</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194.3</v>
+        <v>295.8</v>
       </c>
       <c r="C6" t="n">
-        <v>1.79</v>
+        <v>2.7</v>
       </c>
       <c r="D6" t="n">
-        <v>10.09</v>
+        <v>5.1</v>
       </c>
       <c r="E6" t="n">
-        <v>68.68600000000001</v>
+        <v>34.9</v>
       </c>
       <c r="F6" t="n">
-        <v>194.3</v>
+        <v>32.8</v>
       </c>
       <c r="G6" t="n">
-        <v>105.162466</v>
+        <v>36.4</v>
       </c>
       <c r="H6" t="n">
-        <v>17811.13</v>
+        <v>46749.6</v>
       </c>
       <c r="I6" t="n">
-        <v>17616.83</v>
+        <v>46453.8</v>
       </c>
       <c r="J6" t="n">
-        <v>16.79</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>53.36</v>
+        <v>46.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1501.2</v>
+        <v>850.7</v>
       </c>
       <c r="M6" t="n">
-        <v>18463.168925</v>
+        <v>46894.3</v>
       </c>
       <c r="N6" t="n">
-        <v>396.160458999992</v>
+        <v>9.4</v>
       </c>
       <c r="O6" t="n">
-        <v>-573.751075</v>
+        <v>-236</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>20537.58</v>
+        <v>47980.9</v>
       </c>
       <c r="R6" t="n">
-        <v>17872.708466</v>
+        <v>46589.1</v>
       </c>
       <c r="S6" t="n">
-        <v>18067.008466</v>
+        <v>46884.9</v>
       </c>
       <c r="T6" t="n">
-        <v>0.54</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>227.9</v>
+        <v>283.8</v>
       </c>
       <c r="C7" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="E7" t="n">
-        <v>63.5</v>
+        <v>49.5</v>
       </c>
       <c r="F7" t="n">
-        <v>227.9</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>90.3</v>
+        <v>31.2</v>
       </c>
       <c r="H7" t="n">
-        <v>24860.9</v>
+        <v>43923</v>
       </c>
       <c r="I7" t="n">
-        <v>24633</v>
+        <v>43639.2</v>
       </c>
       <c r="J7" t="n">
-        <v>18.4</v>
+        <v>6.7</v>
       </c>
       <c r="K7" t="n">
-        <v>64.09999999999999</v>
+        <v>40.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1276.4</v>
+        <v>964.8</v>
       </c>
       <c r="M7" t="n">
-        <v>25084.4</v>
+        <v>44018.9</v>
       </c>
       <c r="N7" t="n">
-        <v>-21.4</v>
+        <v>-39.8</v>
       </c>
       <c r="O7" t="n">
-        <v>-151.4</v>
+        <v>160.8</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>26511.7</v>
+        <v>44822.5</v>
       </c>
       <c r="R7" t="n">
-        <v>24877.9</v>
+        <v>43775</v>
       </c>
       <c r="S7" t="n">
-        <v>25105.8</v>
+        <v>44058.7</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>227.9139</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0.85</v>
+        <v>3.2</v>
       </c>
       <c r="D8" t="n">
-        <v>8.300000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="E8" t="n">
-        <v>55.727</v>
+        <v>53.1</v>
       </c>
       <c r="F8" t="n">
-        <v>227.9139</v>
+        <v>1.9</v>
       </c>
       <c r="G8" t="n">
-        <v>90.44532</v>
+        <v>27.4</v>
       </c>
       <c r="H8" t="n">
-        <v>27653.553879</v>
+        <v>45324.7</v>
       </c>
       <c r="I8" t="n">
-        <v>27425.648199</v>
+        <v>45316.7</v>
       </c>
       <c r="J8" t="n">
-        <v>18.5</v>
+        <v>7.1</v>
       </c>
       <c r="K8" t="n">
-        <v>65.39</v>
+        <v>41.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1446.75</v>
+        <v>1011.9</v>
       </c>
       <c r="M8" t="n">
-        <v>27990.5194</v>
+        <v>45428.6</v>
       </c>
       <c r="N8" t="n">
-        <v>97.74498100000351</v>
+        <v>-33.8</v>
       </c>
       <c r="O8" t="n">
-        <v>-331.07</v>
+        <v>1529</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>29768.3094</v>
+        <v>44911.5</v>
       </c>
       <c r="R8" t="n">
-        <v>27664.860519</v>
+        <v>45454.4</v>
       </c>
       <c r="S8" t="n">
-        <v>27892.774419</v>
+        <v>45462.4</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>268.02216</v>
+        <v>1.6</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>8.23</v>
+        <v>5.9</v>
       </c>
       <c r="E9" t="n">
-        <v>57.232</v>
+        <v>38.4</v>
       </c>
       <c r="F9" t="n">
-        <v>268.02216</v>
+        <v>1.6</v>
       </c>
       <c r="G9" t="n">
-        <v>81.40232399999999</v>
+        <v>21.8</v>
       </c>
       <c r="H9" t="n">
-        <v>28932.2237487306</v>
+        <v>43609.1</v>
       </c>
       <c r="I9" t="n">
-        <v>28664.2080687305</v>
+        <v>43607.4</v>
       </c>
       <c r="J9" t="n">
-        <v>17.48065</v>
+        <v>12.6</v>
       </c>
       <c r="K9" t="n">
-        <v>71</v>
+        <v>49.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1529.93</v>
+        <v>807.9</v>
       </c>
       <c r="M9" t="n">
-        <v>29090.058485</v>
+        <v>43739.5</v>
       </c>
       <c r="N9" t="n">
-        <v>-78.0628427305019</v>
+        <v>-3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>-685.29</v>
+        <v>1378</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>31305.278485</v>
+        <v>43168.4</v>
       </c>
       <c r="R9" t="n">
-        <v>28900.0991677305</v>
+        <v>43741.5</v>
       </c>
       <c r="S9" t="n">
-        <v>29168.1213277305</v>
+        <v>43743.1</v>
       </c>
       <c r="T9" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>187.615512</v>
+        <v>22.8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.28726175</v>
+        <v>0.4</v>
       </c>
       <c r="D10" t="n">
-        <v>6.93</v>
+        <v>6.3</v>
       </c>
       <c r="E10" t="n">
-        <v>53.144</v>
+        <v>103</v>
       </c>
       <c r="F10" t="n">
-        <v>187.615512</v>
+        <v>1.6</v>
       </c>
       <c r="G10" t="n">
-        <v>64.9317762108</v>
+        <v>16.4</v>
       </c>
       <c r="H10" t="n">
-        <v>29756.69897216</v>
+        <v>43560.9</v>
       </c>
       <c r="I10" t="n">
-        <v>29569.0797129216</v>
+        <v>43538</v>
       </c>
       <c r="J10" t="n">
-        <v>10.6981578</v>
+        <v>10.6</v>
       </c>
       <c r="K10" t="n">
-        <v>7.54</v>
+        <v>19</v>
       </c>
       <c r="L10" t="n">
-        <v>1221.33</v>
+        <v>975.8</v>
       </c>
       <c r="M10" t="n">
-        <v>29994.00671225</v>
+        <v>43257.9</v>
       </c>
       <c r="N10" t="n">
-        <v>93.7802915675602</v>
+        <v>-458.6</v>
       </c>
       <c r="O10" t="n">
-        <v>-1098.6</v>
+        <v>-526.8</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>32313.93671225</v>
+        <v>44751.4</v>
       </c>
       <c r="R10" t="n">
-        <v>29712.6109086824</v>
+        <v>43693.7</v>
       </c>
       <c r="S10" t="n">
-        <v>29900.2264206824</v>
-      </c>
-      <c r="T10" t="inlineStr"/>
+        <v>43716.6</v>
+      </c>
+      <c r="T10" t="n">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.2986934528</v>
+        <v>89.3</v>
       </c>
       <c r="C11" t="n">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="D11" t="n">
-        <v>3.465</v>
+        <v>6.3</v>
       </c>
       <c r="E11" t="n">
-        <v>44.59</v>
+        <v>59.7</v>
       </c>
       <c r="F11" t="n">
-        <v>160.2986934528</v>
+        <v>16.5</v>
       </c>
       <c r="G11" t="n">
-        <v>48.83966334756</v>
+        <v>12.8</v>
       </c>
       <c r="H11" t="n">
-        <v>31743.3199562016</v>
+        <v>46320.2</v>
       </c>
       <c r="I11" t="n">
-        <v>31583.0165942232</v>
+        <v>46230.9</v>
       </c>
       <c r="J11" t="n">
-        <v>5.68</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>3.94</v>
+        <v>16.9</v>
       </c>
       <c r="L11" t="n">
-        <v>54.53</v>
+        <v>652.3</v>
       </c>
       <c r="M11" t="n">
-        <v>31961.3269089507</v>
+        <v>46533.7</v>
       </c>
       <c r="N11" t="n">
-        <v>111.356957927164</v>
+        <v>107.7</v>
       </c>
       <c r="O11" t="n">
-        <v>-2244.118</v>
+        <v>-162.2</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>34244.0549089507</v>
+        <v>47295.8</v>
       </c>
       <c r="R11" t="n">
-        <v>31689.6712575708</v>
+        <v>46336.6</v>
       </c>
       <c r="S11" t="n">
-        <v>31849.9699510236</v>
+        <v>46426</v>
       </c>
       <c r="T11" t="n">
-        <v>15.92</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128.2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.8</v>
-      </c>
+        <v>547.9</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>46.8</v>
+        <v>23.2</v>
       </c>
       <c r="F12" t="n">
-        <v>128.2</v>
+        <v>17.6</v>
       </c>
       <c r="G12" t="n">
-        <v>43.5</v>
+        <v>11.4</v>
       </c>
       <c r="H12" t="n">
-        <v>38598.7</v>
+        <v>48272.2</v>
       </c>
       <c r="I12" t="n">
-        <v>38470.5</v>
+        <v>47724.3</v>
       </c>
       <c r="J12" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.1</v>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>335</v>
+        <v>349.2</v>
       </c>
       <c r="M12" t="n">
-        <v>38707.1</v>
+        <v>47312</v>
       </c>
       <c r="N12" t="n">
-        <v>4.3</v>
+        <v>-998.4</v>
       </c>
       <c r="O12" t="n">
-        <v>373.3</v>
+        <v>175.1</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>38657.8</v>
+        <v>47188.2</v>
       </c>
       <c r="R12" t="n">
-        <v>38574.6</v>
+        <v>47762.5</v>
       </c>
       <c r="S12" t="n">
-        <v>38702.8</v>
+        <v>48310.4</v>
       </c>
       <c r="T12" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>109</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E13" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>109</v>
-      </c>
-      <c r="G13" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>41952.1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>41843.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L13" t="n">
-        <v>329.7</v>
-      </c>
-      <c r="M13" t="n">
-        <v>42085.8</v>
-      </c>
-      <c r="N13" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-1029</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>43433</v>
-      </c>
-      <c r="R13" t="n">
-        <v>41954.3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>42063.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="G14" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>44694.8</v>
-      </c>
-      <c r="I14" t="n">
-        <v>44628.1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="L14" t="n">
-        <v>102</v>
-      </c>
-      <c r="M14" t="n">
-        <v>44813.7</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1076.7</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>43831.4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>44738.5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>44805.2</v>
-      </c>
-      <c r="T14" t="n">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>38</v>
-      </c>
-      <c r="H15" t="n">
-        <v>45694</v>
-      </c>
-      <c r="I15" t="n">
-        <v>45659.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K15" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="L15" t="n">
-        <v>467.3</v>
-      </c>
-      <c r="M15" t="n">
-        <v>45850.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>-2034</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>48347.8</v>
-      </c>
-      <c r="R15" t="n">
-        <v>45817.5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>45851.9</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>295.8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="G16" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>46749.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>46453.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K16" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="L16" t="n">
-        <v>850.7</v>
-      </c>
-      <c r="M16" t="n">
-        <v>46894.3</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-236</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>47980.9</v>
-      </c>
-      <c r="R16" t="n">
-        <v>46589.1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>46884.9</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>283.8</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E17" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G17" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>43923</v>
-      </c>
-      <c r="I17" t="n">
-        <v>43639.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>964.8</v>
-      </c>
-      <c r="M17" t="n">
-        <v>44018.9</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-39.8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>160.8</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>44822.5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>43775</v>
-      </c>
-      <c r="S17" t="n">
-        <v>44058.7</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="E18" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G18" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="H18" t="n">
-        <v>45324.7</v>
-      </c>
-      <c r="I18" t="n">
-        <v>45316.7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1011.9</v>
-      </c>
-      <c r="M18" t="n">
-        <v>45428.6</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-33.8</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1529</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>44911.5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>45454.4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>45462.4</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E19" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G19" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="H19" t="n">
-        <v>43609.1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>43607.4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>807.9</v>
-      </c>
-      <c r="M19" t="n">
-        <v>43739.5</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1378</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>43168.4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>43741.5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>43743.1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>103</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G20" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>43560.9</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43538</v>
-      </c>
-      <c r="J20" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>19</v>
-      </c>
-      <c r="L20" t="n">
-        <v>975.8</v>
-      </c>
-      <c r="M20" t="n">
-        <v>43257.9</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-458.6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>-526.8</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>44751.4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>43693.7</v>
-      </c>
-      <c r="S20" t="n">
-        <v>43716.6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>59.7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>46320.2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>46230.86</v>
-      </c>
-      <c r="J21" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K21" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>652.3</v>
-      </c>
-      <c r="M21" t="n">
-        <v>46533.7</v>
-      </c>
-      <c r="N21" t="n">
-        <v>107.71</v>
-      </c>
-      <c r="O21" t="n">
-        <v>-162.2</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
-        <v>47295.8</v>
-      </c>
-      <c r="R21" t="n">
-        <v>46336.64</v>
-      </c>
-      <c r="S21" t="n">
-        <v>46425.96</v>
-      </c>
-      <c r="T21" t="n">
-        <v>52.3</v>
+        <v>297.9</v>
       </c>
     </row>
   </sheetData>
